--- a/data/trans_camb/P17_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P17_R2-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.5136142944321</v>
+        <v>-8.413307089332198</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.35321682566887</v>
+        <v>-13.27150328998417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.6608053771234</v>
+        <v>-16.67151584512797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.035030574418297</v>
+        <v>-7.319165846363175</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-14.78134128432665</v>
+        <v>-15.06462041824583</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-21.9848266845313</v>
+        <v>-21.80724223610926</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.455112823614023</v>
+        <v>-6.310361900287748</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.83096876119955</v>
+        <v>-12.91987861249589</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-18.8430355141899</v>
+        <v>-18.54906004826271</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.201462885868416</v>
+        <v>-1.036790718482442</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.983383639060786</v>
+        <v>-5.575060054598747</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.572545208911814</v>
+        <v>-9.437918657073952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.04210384755228162</v>
+        <v>-0.06612073450221564</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-7.999653859973212</v>
+        <v>-7.764545132250054</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-16.11966197486136</v>
+        <v>-16.14919283573405</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.21547988889235</v>
+        <v>-1.136628290293807</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-8.063626138172868</v>
+        <v>-7.798088255337079</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-14.25530130642939</v>
+        <v>-14.01763260439127</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3967562799813944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.6760028825376007</v>
+        <v>-0.6760028825376005</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1468206451301856</v>
@@ -769,7 +769,7 @@
         <v>-0.3993203058414678</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.6275929046686867</v>
+        <v>-0.6275929046686866</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3253435348224785</v>
+        <v>-0.3277214568097265</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5280135462360197</v>
+        <v>-0.5114782641734013</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6598244050402851</v>
+        <v>-0.6571869660121952</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2365700322127784</v>
+        <v>-0.2393074156758101</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5012680753557018</v>
+        <v>-0.5009743893519505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.732076713445739</v>
+        <v>-0.7328701725094205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.235039739924186</v>
+        <v>-0.2309829436826699</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4695927225126895</v>
+        <v>-0.4706821913116379</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6828840352854377</v>
+        <v>-0.6791018853476224</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.05449871443032529</v>
+        <v>-0.04618992346305215</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2714619020566008</v>
+        <v>-0.2647774565501005</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4296534658048897</v>
+        <v>-0.4279499014013691</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.001690675006697227</v>
+        <v>-0.001248699773489024</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2993358287050695</v>
+        <v>-0.2921906863817461</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6086735435611341</v>
+        <v>-0.6095568687357467</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.04884294635921373</v>
+        <v>-0.04541650126181668</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3166558650848014</v>
+        <v>-0.3131148033722734</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.5649597245302376</v>
+        <v>-0.5623274204739598</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.269366851724006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.585551743668856</v>
+        <v>-7.58555174366885</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.87428309585034</v>
@@ -878,7 +878,7 @@
         <v>-5.740751930019616</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-8.910292630229913</v>
+        <v>-8.910292630229907</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.573758198568088</v>
+        <v>2.270691762685653</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.1133270851165</v>
+        <v>-4.920715862603855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.39343658137601</v>
+        <v>-10.37160722068773</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.605178403574568</v>
+        <v>1.6332240120152</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.62799932814675</v>
+        <v>-12.47244135499254</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.33691324946553</v>
+        <v>-13.35455635540928</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.660727052216982</v>
+        <v>2.983746371250204</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.857710681804619</v>
+        <v>-7.713850740688089</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-10.90574862625655</v>
+        <v>-10.70687472327214</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.204692790391869</v>
+        <v>8.347390263066732</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.32497119785873</v>
+        <v>0.6120243677647834</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.710150286270584</v>
+        <v>-4.993193709489206</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.097440013493973</v>
+        <v>8.171646542990915</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-6.660707539785908</v>
+        <v>-6.526106618563792</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.536618105320731</v>
+        <v>-7.514831690192814</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.177691528001234</v>
+        <v>7.390214909488973</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.73187666491341</v>
+        <v>-3.742366487303671</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-6.855945313319718</v>
+        <v>-6.779169443314863</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.104489518508859</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3492651039288159</v>
+        <v>-0.3492651039288157</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1454727206838088</v>
@@ -974,7 +974,7 @@
         <v>-0.2829685388818065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3130450948890245</v>
+        <v>-0.3130450948890244</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1843870427389333</v>
@@ -983,7 +983,7 @@
         <v>-0.2093214230645259</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3248903899727836</v>
+        <v>-0.3248903899727834</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1102208292249473</v>
+        <v>0.0909754413761083</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.220392261744488</v>
+        <v>-0.2123903145928043</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4461095389666761</v>
+        <v>-0.4433442531427442</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0446457361801372</v>
+        <v>0.04748664492610438</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3565078358539266</v>
+        <v>-0.3544725841243174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3780615508876652</v>
+        <v>-0.3761208354781146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09383253410890273</v>
+        <v>0.1050620393213327</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2728436832352448</v>
+        <v>-0.2686760884337738</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3835416617303125</v>
+        <v>-0.3784931512751831</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3997138309686745</v>
+        <v>0.4100154621825802</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01598426881809507</v>
+        <v>0.02991447040580262</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2349563502400184</v>
+        <v>-0.2396097810631131</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2554106516558374</v>
+        <v>0.2583303326159121</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2082506718814589</v>
+        <v>-0.2016664424589601</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.238790175887814</v>
+        <v>-0.2356903528086161</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2757221826131396</v>
+        <v>0.2825192091159467</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1423383972211914</v>
+        <v>-0.1402895579130039</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2616010483474839</v>
+        <v>-0.2602061798232991</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-8.492374952207427</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-7.62317657429594</v>
+        <v>-7.623176574295942</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.065126791609905</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.38149102819213</v>
+        <v>-3.211464427917035</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.96289370148047</v>
+        <v>-13.92155229195711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.16968484156043</v>
+        <v>-12.69050039483129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6314714519868151</v>
+        <v>1.146730981762299</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.910776440665617</v>
+        <v>-4.382728519722136</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.59796313602778</v>
+        <v>-10.75797412656766</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7721058750726426</v>
+        <v>0.8443242189145933</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.772367596078716</v>
+        <v>-7.588703133939855</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.07917730577297</v>
+        <v>-10.0818102964459</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.619374329425964</v>
+        <v>8.511638995041992</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.796100988830494</v>
+        <v>-3.203182225849912</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.147096815337981</v>
+        <v>-2.07572882126835</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.71792947337176</v>
+        <v>13.71115358584606</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.277308416632758</v>
+        <v>6.844653829962255</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.3432418650888516</v>
+        <v>-0.1797094762531196</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.170525012606175</v>
+        <v>9.14912596392586</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2000605543296403</v>
+        <v>0.3190097462649398</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.575588571917779</v>
+        <v>-2.835134312911137</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3049099566371667</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2737022860845142</v>
+        <v>-0.2737022860845143</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2408047067111727</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1168405425604814</v>
+        <v>-0.1063378851332634</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4510154555386062</v>
+        <v>-0.4524899182283058</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4259623780157005</v>
+        <v>-0.4163521382488921</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01941700656750821</v>
+        <v>0.03196981150559458</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1493713873824183</v>
+        <v>-0.1408398201965845</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3288795986604082</v>
+        <v>-0.3348087779103321</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0227004662385614</v>
+        <v>0.02777368978937966</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.254218238690253</v>
+        <v>-0.2472221459170073</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3239846144653924</v>
+        <v>-0.3269613066017128</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3523490891224749</v>
+        <v>0.3429348717374714</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1171485279467567</v>
+        <v>-0.1256388463179046</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.08480246723927115</v>
+        <v>-0.08853457104419472</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5182718625457612</v>
+        <v>0.5256129454412258</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2356486473758971</v>
+        <v>0.2572656927502235</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01984429430461001</v>
+        <v>-0.01656523182445805</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3433198575377526</v>
+        <v>0.3452129534038664</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.007354353288102867</v>
+        <v>0.01207952381813711</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.09567361142449898</v>
+        <v>-0.1045548980955821</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-6.496483014176227</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-9.646141867954414</v>
+        <v>-9.646141867954411</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2080442613950693</v>
+        <v>-0.1752944968911173</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.188585494797121</v>
+        <v>-7.295922149006623</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.674667717801</v>
+        <v>-10.72841075120976</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1910481209361625</v>
+        <v>-0.08971216876651705</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.19558894386381</v>
+        <v>-9.938638946471352</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.76387372555375</v>
+        <v>-12.76370964718709</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5451078829849894</v>
+        <v>0.5235257228249663</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.916531480281708</v>
+        <v>-7.932768667539743</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.01467930519883</v>
+        <v>-11.16388307238131</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.075428189182531</v>
+        <v>3.901546568554163</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.27967312462619</v>
+        <v>-3.260459663867615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.622514896652336</v>
+        <v>-6.754858027063683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.36005457872504</v>
+        <v>4.576222123014727</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.51190710980705</v>
+        <v>-5.551962468800072</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-8.800269903022947</v>
+        <v>-8.950213375483411</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.631008486685468</v>
+        <v>3.566929487208169</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.04873394087146</v>
+        <v>-5.048228332856632</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-8.122012236858557</v>
+        <v>-8.372663726944278</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.2388306506185999</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3546217750828672</v>
+        <v>-0.3546217750828671</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.004660689333433869</v>
+        <v>-0.007137727696191842</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2934594497743068</v>
+        <v>-0.2956599943525646</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4361731806067262</v>
+        <v>-0.4379412085473777</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.006061430405117642</v>
+        <v>-0.002187949976773088</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3152633808416302</v>
+        <v>-0.3126573610315035</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3971727334188655</v>
+        <v>-0.3976141879862455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02034990809825549</v>
+        <v>0.01877796947148611</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2840231446644076</v>
+        <v>-0.284171981926643</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3945767864896383</v>
+        <v>-0.3992280242379037</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1824016886770691</v>
+        <v>0.1744437188704182</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.146222220200712</v>
+        <v>-0.144730809637602</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2948340211008605</v>
+        <v>-0.2973909141913311</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1467757510146068</v>
+        <v>0.1533592874212631</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1877610099003929</v>
+        <v>-0.1870095895822142</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2956185632118349</v>
+        <v>-0.2962145434516865</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1374034572450597</v>
+        <v>0.1344498118775028</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1913559355664338</v>
+        <v>-0.1918473130721639</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.308908235203306</v>
+        <v>-0.3160825554777819</v>
       </c>
     </row>
     <row r="28">
